--- a/steigenberger/src/main/resources/orderitemsreport.xlsx
+++ b/steigenberger/src/main/resources/orderitemsreport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\haier\steigenberger\steigenberger\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289112C7-E19D-4F36-B924-029B29A12DE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9534A411-5312-4D21-9336-D1A0A3F3E91E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>${order.statusDesc}</t>
   </si>
   <si>
-    <t>${order.industryCodeName}</t>
-  </si>
-  <si>
     <t>${order.contractManager}</t>
   </si>
   <si>
@@ -581,6 +578,10 @@
   </si>
   <si>
     <t>${order.transactionPrice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${order.customerClazzName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,115 +1181,115 @@
         <v>47</v>
       </c>
       <c r="AW1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="CC1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="CD1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
@@ -1308,13 +1309,13 @@
         <v>52</v>
       </c>
       <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" t="s">
-        <v>95</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
@@ -1344,208 +1345,208 @@
         <v>61</v>
       </c>
       <c r="R2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" t="s">
         <v>62</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>63</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" t="s">
         <v>64</v>
       </c>
-      <c r="U2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" t="s">
         <v>66</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>72</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>79</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>80</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT2" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AR2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="AW2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX2" t="s">
         <v>96</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>97</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>98</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>99</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>100</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>101</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>102</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>103</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>104</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH2" t="s">
         <v>105</v>
       </c>
-      <c r="BG2" t="s">
-        <v>168</v>
-      </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>106</v>
       </c>
-      <c r="BI2" t="s">
-        <v>167</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BL2" t="s">
         <v>107</v>
       </c>
-      <c r="BK2" t="s">
-        <v>166</v>
-      </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>108</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>109</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>110</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>111</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>112</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>113</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>114</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>115</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>116</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>117</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX2" t="s">
         <v>118</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BY2" t="s">
         <v>164</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BZ2" t="s">
         <v>119</v>
       </c>
-      <c r="BY2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>120</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>121</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>122</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>123</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>124</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>125</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>126</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
